--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件调解件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件调解件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,430 +483,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4908</v>
+      </c>
+      <c r="C2" t="n">
+        <v>368516</v>
+      </c>
+      <c r="D2" t="n">
+        <v>379203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>116804</v>
+      </c>
       <c r="G2" t="n">
-        <v>163743</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>563922</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1148</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17292</v>
+      </c>
+      <c r="J2" t="n">
+        <v>775</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6099</v>
+      </c>
+      <c r="C3" t="n">
+        <v>463115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>478925</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46589</v>
+      </c>
+      <c r="F3" t="n">
+        <v>110502</v>
+      </c>
       <c r="G3" t="n">
-        <v>167964</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>697940</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14463</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31277</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10085</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5891</v>
+      </c>
+      <c r="C4" t="n">
+        <v>530732</v>
+      </c>
+      <c r="D4" t="n">
+        <v>548980</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50337</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97604</v>
+      </c>
       <c r="G4" t="n">
-        <v>202748</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>774943</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7386</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54860</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9885</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6410</v>
+      </c>
+      <c r="C5" t="n">
+        <v>475739</v>
+      </c>
+      <c r="D5" t="n">
+        <v>488101</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33985</v>
+      </c>
+      <c r="F5" t="n">
+        <v>79460</v>
+      </c>
       <c r="G5" t="n">
-        <v>239915</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>692219</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13604</v>
+      </c>
+      <c r="I5" t="n">
+        <v>65442</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5217</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6555</v>
+      </c>
+      <c r="C6" t="n">
+        <v>453003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>464201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33961</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64684</v>
+      </c>
       <c r="G6" t="n">
-        <v>257754</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>653108</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5688</v>
+      </c>
+      <c r="I6" t="n">
+        <v>69191</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8828</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1912</v>
+        <v>6608</v>
       </c>
       <c r="C7" t="n">
-        <v>184655</v>
+        <v>450155</v>
       </c>
       <c r="D7" t="n">
-        <v>186616</v>
+        <v>460256</v>
       </c>
       <c r="E7" t="n">
-        <v>67720</v>
+        <v>33682</v>
       </c>
       <c r="F7" t="n">
-        <v>19103</v>
+        <v>62643</v>
       </c>
       <c r="G7" t="n">
-        <v>287842</v>
+        <v>627618</v>
       </c>
       <c r="H7" t="n">
-        <v>5836</v>
+        <v>3195</v>
       </c>
       <c r="I7" t="n">
-        <v>6600</v>
+        <v>59772</v>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3034</v>
+        <v>7931</v>
       </c>
       <c r="C8" t="n">
-        <v>228515</v>
+        <v>429543</v>
       </c>
       <c r="D8" t="n">
-        <v>233646</v>
+        <v>438740</v>
       </c>
       <c r="E8" t="n">
-        <v>18042</v>
+        <v>20798</v>
       </c>
       <c r="F8" t="n">
-        <v>82089</v>
+        <v>71938</v>
       </c>
       <c r="G8" t="n">
-        <v>349525</v>
+        <v>587848</v>
       </c>
       <c r="H8" t="n">
-        <v>1710</v>
+        <v>3977</v>
       </c>
       <c r="I8" t="n">
-        <v>10081</v>
+        <v>39170</v>
       </c>
       <c r="J8" t="n">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4487</v>
-      </c>
-      <c r="C9" t="n">
-        <v>270715</v>
-      </c>
-      <c r="D9" t="n">
-        <v>280028</v>
-      </c>
-      <c r="E9" t="n">
-        <v>37096</v>
-      </c>
-      <c r="F9" t="n">
-        <v>91818</v>
-      </c>
-      <c r="G9" t="n">
-        <v>428968</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1425</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13090</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4908</v>
-      </c>
-      <c r="C10" t="n">
-        <v>368516</v>
-      </c>
-      <c r="D10" t="n">
-        <v>379203</v>
-      </c>
-      <c r="E10" t="n">
-        <v>43792</v>
-      </c>
-      <c r="F10" t="n">
-        <v>116804</v>
-      </c>
-      <c r="G10" t="n">
-        <v>563922</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1148</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17292</v>
-      </c>
-      <c r="J10" t="n">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6099</v>
-      </c>
-      <c r="C11" t="n">
-        <v>463115</v>
-      </c>
-      <c r="D11" t="n">
-        <v>478925</v>
-      </c>
-      <c r="E11" t="n">
-        <v>46589</v>
-      </c>
-      <c r="F11" t="n">
-        <v>110502</v>
-      </c>
-      <c r="G11" t="n">
-        <v>697940</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14463</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31277</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10085</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5891</v>
-      </c>
-      <c r="C12" t="n">
-        <v>530732</v>
-      </c>
-      <c r="D12" t="n">
-        <v>548980</v>
-      </c>
-      <c r="E12" t="n">
-        <v>50337</v>
-      </c>
-      <c r="F12" t="n">
-        <v>97604</v>
-      </c>
-      <c r="G12" t="n">
-        <v>774943</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7386</v>
-      </c>
-      <c r="I12" t="n">
-        <v>54860</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9885</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6410</v>
-      </c>
-      <c r="C13" t="n">
-        <v>475739</v>
-      </c>
-      <c r="D13" t="n">
-        <v>488101</v>
-      </c>
-      <c r="E13" t="n">
-        <v>33985</v>
-      </c>
-      <c r="F13" t="n">
-        <v>79460</v>
-      </c>
-      <c r="G13" t="n">
-        <v>692219</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13604</v>
-      </c>
-      <c r="I13" t="n">
-        <v>65442</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5217</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6555</v>
-      </c>
-      <c r="C14" t="n">
-        <v>453003</v>
-      </c>
-      <c r="D14" t="n">
-        <v>464201</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33961</v>
-      </c>
-      <c r="F14" t="n">
-        <v>64684</v>
-      </c>
-      <c r="G14" t="n">
-        <v>653108</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5688</v>
-      </c>
-      <c r="I14" t="n">
-        <v>69191</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8828</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6608</v>
-      </c>
-      <c r="C15" t="n">
-        <v>450155</v>
-      </c>
-      <c r="D15" t="n">
-        <v>460256</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33682</v>
-      </c>
-      <c r="F15" t="n">
-        <v>62643</v>
-      </c>
-      <c r="G15" t="n">
-        <v>627618</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3195</v>
-      </c>
-      <c r="I15" t="n">
-        <v>59772</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7931</v>
-      </c>
-      <c r="C16" t="n">
-        <v>429543</v>
-      </c>
-      <c r="D16" t="n">
-        <v>438740</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20798</v>
-      </c>
-      <c r="F16" t="n">
-        <v>71938</v>
-      </c>
-      <c r="G16" t="n">
-        <v>587848</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3977</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39170</v>
-      </c>
-      <c r="J16" t="n">
         <v>5294</v>
       </c>
     </row>
